--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/47_Kayseri_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/47_Kayseri_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8974FCBD-669E-472C-8CAB-0A5371D1BCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF7D009D-98C6-43DD-BE45-7958318F60A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{0B0FC6AE-6A8B-4512-9A87-C44625EEA4D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{0FCEF2CC-3785-4874-A50C-395CF76CD109}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D94B38E9-9B43-4C0C-A319-E73D23A2788A}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{330BC858-2019-4C80-BA17-984DBAE32FDD}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{4A2ECDCE-5489-4772-A377-C6ACB4A8B569}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{0E65C6F6-B558-49C5-907D-F37B5F16C5F7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{62104753-72FF-4D31-BD37-E73D422A7FC2}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{2CAAF2ED-1A8F-442D-BAA2-D0B2A9079032}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{39C18F60-E3B7-4B78-86C0-3798DCB73E71}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7A241A3F-3A50-4790-A24B-27AEA1171E89}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6907CE9F-7CA2-48E5-A79A-34F85FAF7301}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{FFFBFA67-228B-47C2-9252-723BE5A41EE9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{5D208078-4948-4688-9E98-E19D91B6C6C2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{D92C686C-6BED-4838-B0E8-95F19B869552}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{6668357F-3674-4841-A789-BD5BF6D5351F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{71B65F86-7453-47FE-B1E4-19147A7449D3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5F7409-6978-45A9-A71E-E9A58C437314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9945273-E915-4EB6-84D1-E7A1DE4DC6F3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2498,7 +2498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51E9483-7418-4E96-ABF3-3F78F449F05D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9AF797-AD39-4D8E-A4D0-4002348BA853}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3823,7 +3823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E4760B-9671-4163-BEDF-E7A31AE1F28F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0504943-4B04-4DB8-8B47-4440FD3364D6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5148,7 +5148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EF1911-33CD-49AC-B9FC-5FE1293CA3EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF878FA-4FD6-43EA-840C-6F990E3775B6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6473,7 +6473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96E1FA2-BF34-4EC1-B119-D31AC7CE0598}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC74CE1-CD66-42F4-A4FD-5480CE99CD03}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7792,7 +7792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611FFDFA-827A-463F-909A-FDB61D4EB9BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E23D77C-1A9D-4BBA-A784-444791383A65}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
